--- a/plantillas/consulta/Proyectos-GE.xlsx
+++ b/plantillas/consulta/Proyectos-GE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7719DE6-A629-40A2-858C-740480C4469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A82B1-F656-4FCA-BEBC-12EE55710C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fecha:</t>
   </si>
@@ -54,16 +54,13 @@
     <t>Distrito</t>
   </si>
   <si>
-    <t>FORMATO X</t>
-  </si>
-  <si>
     <t>Clave de la UT</t>
   </si>
   <si>
     <t>Demarcación Territorial</t>
   </si>
   <si>
-    <t>No. de Proyecto</t>
+    <t>Clave de Proyecto</t>
   </si>
 </sst>
 </file>
@@ -469,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,11 +510,6 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
@@ -543,47 +535,50 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
